--- a/Data_Cleaning_And_Processing/Token_Sizes.xlsx
+++ b/Data_Cleaning_And_Processing/Token_Sizes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub_Repos\Discord_Bratan_Reddit_Trained\Data_Cleaning_And_Processing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1AD0B1-3B22-4495-8F0B-2A8412168CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+  <si>
+    <t>Billions</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billions </t>
+  </si>
+  <si>
+    <t>Total High-Quality Pairs</t>
+  </si>
+  <si>
+    <t>Total Tokens</t>
+  </si>
+  <si>
+    <t>Token Size</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +363,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2007</v>
+      </c>
+      <c r="B2">
+        <v>1.17E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>77655</v>
+      </c>
+      <c r="E2" s="1">
+        <v>11690457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2008</v>
+      </c>
+      <c r="B3">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>585473</v>
+      </c>
+      <c r="E3" s="1">
+        <v>85781826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2009</v>
+      </c>
+      <c r="B4">
+        <v>0.2248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1465092</v>
+      </c>
+      <c r="E4" s="1">
+        <v>224768065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2010</v>
+      </c>
+      <c r="B5">
+        <v>0.4748</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3242763</v>
+      </c>
+      <c r="E5" s="1">
+        <v>474796092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2011</v>
+      </c>
+      <c r="B6">
+        <v>1.0667</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7679989</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1066669460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7">
+        <v>2.3294000000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16984815</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2329364054</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data_Cleaning_And_Processing/Token_Sizes.xlsx
+++ b/Data_Cleaning_And_Processing/Token_Sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub_Repos\Discord_Bratan_Reddit_Trained\Data_Cleaning_And_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1AD0B1-3B22-4495-8F0B-2A8412168CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824FD00-5CF0-414E-BA36-A1A758E1F07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4008" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Billions</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>Token Size</t>
+  </si>
+  <si>
+    <t>Total Files Processed:  92</t>
+  </si>
+  <si>
+    <t>Total Chat Pairs:       111,698,415</t>
+  </si>
+  <si>
+    <t>Total Raw Tokens:       14,903,021,631</t>
+  </si>
+  <si>
+    <t>Size in Billions (B):   14.9030 B</t>
+  </si>
+  <si>
+    <t>Avg Tokens per Pair:    133.42</t>
   </si>
 </sst>
 </file>
@@ -364,14 +379,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5546875" customWidth="1"/>
   </cols>
@@ -495,6 +512,31 @@
         <v>2329364054</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
